--- a/test0.xlsx
+++ b/test0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\IdeaProjects\course_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\813764\IdeaProjects\excel0\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6AC96C-6CB9-40AF-B8D8-ED1973359639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{29B6C0BF-7673-46F6-9330-2A1B435CE4D5}"/>
   </bookViews>
   <sheets>
     <sheet name="details" sheetId="1" r:id="rId1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,11 +398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960E1DBE-8127-4EDE-8254-0C82DDB39EC2}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,7 +482,7 @@
         <v>97</v>
       </c>
       <c r="B6">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>78</v>
@@ -523,10 +524,10 @@
         <v>100</v>
       </c>
       <c r="B9">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -607,10 +608,10 @@
         <v>4122</v>
       </c>
       <c r="B15">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>360</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -775,10 +776,10 @@
         <v>21</v>
       </c>
       <c r="B27">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D27">
         <v>2</v>
